--- a/results/mp/deberta/corona/confidence/210/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-0.5/avg_0.004_scores.xlsx
@@ -97,12 +97,12 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
@@ -118,10 +118,10 @@
     <t>hope</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>relief</t>
@@ -1164,25 +1164,25 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6939655172413793</v>
+        <v>0.68</v>
       </c>
       <c r="L17">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="M17">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1190,25 +1190,25 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.68</v>
+        <v>0.6736401673640168</v>
       </c>
       <c r="L18">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="M18">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="N18">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1346,25 +1346,25 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5688073394495413</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L24">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="N24">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O24">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>141</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1372,25 +1372,25 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5588235294117647</v>
+        <v>0.5470588235294118</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="N25">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>30</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="10:17">
